--- a/Voltage_validation/Spannungsvergleich.xlsx
+++ b/Voltage_validation/Spannungsvergleich.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrissi\Git\Flexigrid\Voltage_validation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35B75B6-53A4-4FF3-8254-6D2302710D5D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,15 +71,2042 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>U_actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="116"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>393.68152665894752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>387.071570013415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>387.36305331789492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>377.86019307227701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>381.04457997684239</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>374.43462333130992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>374.72610663578979</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>365.22369524874222</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>368.40763329473731</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>361.79736441943822</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>362.08915995368483</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>352.58629970806692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>355.77068661263218</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>349.16072996709983</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>349.45221327157969</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>339.94980188453212</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>343.13373993052721</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>336.52378328499469</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>393.68152665894752</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>387.071570013415</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>387.36305331789492</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>377.86019307227701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>381.04457997684239</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>374.43462333130992</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>374.72610663578979</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>365.22324639017188</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>368.40763329473731</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>361.79736441943822</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>362.08915995368483</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>352.58674856663708</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>355.77068661263218</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>349.16072996709983</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>349.45221327157969</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>339.94980188453212</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>343.13373993052721</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>336.52347105522807</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>394.62001381162048</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>388.01005716608802</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>389.24002762324102</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>379.73716737762311</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>383.86004143486139</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>377.25008478932898</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>378.48005524648192</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>368.97719500086401</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>373.10006905810241</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>366.48980018280332</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>367.72008286972289</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>358.21767148267531</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>362.34009668134343</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>355.7301400358109</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>356.96011049296379</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>347.45769910591622</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>351.58012430458427</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>344.97016765905192</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>346.20013811620481</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>336.69772672915718</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>340.82015192782529</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>334.21019528229277</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>335.44016573944577</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>325.93775435239809</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>330.06017955106631</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>323.44991067576723</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>324.68019336268668</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>315.17778197563911</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>319.30020717430722</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>312.69025052877481</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>313.9202209859277</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>304.41780959888013</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>394.34858563815447</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>387.73862899262213</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>388.69717127630912</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>379.19431103069121</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>383.0457569144636</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>376.43548803916451</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>377.39434255261813</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>367.89148230700022</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>371.74292819077272</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>365.1329715452402</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>366.09151382892719</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>356.58910244187962</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>360.44009946708172</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>353.83014282154932</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>354.78868510523631</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>345.28627371818862</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>349.13727074339079</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>342.52731409785832</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>343.48585638154532</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>333.98344499449769</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>337.83444201969979</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>331.22448537416739</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>332.18302765785438</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>322.68061627080681</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>393.44886740603488</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>386.83891076050247</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>386.89773481206993</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>377.39487456645202</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>380.34660221810481</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>373.73633334280572</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>373.79546962413968</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>364.29305823709211</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>367.24433703017468</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>360.63406815487559</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>360.69320443620961</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>351.19079304916198</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>354.14207184224449</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>347.53211519671208</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>392.00769316288802</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>385.39773651735561</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>384.01538632577598</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>374.51252608015812</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>376.02307948866411</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>369.41281061336502</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>368.03077265155213</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>358.52836126450438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-154A-4137-BCE6-B22B86A4D67F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>U_noever</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="116"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>385.10909090909092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>356.06653771760159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>370.21818181818179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>341.38015364916782</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>355.32727272727283</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>326.28471953578338</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>340.43636363636369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>311.39381044487442</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>325.54545454545462</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>296.70742637644048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>310.65454545454548</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>281.81651728553152</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>295.76363636363652</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>266.72108317214708</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>280.87272727272739</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>251.830174081238</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>265.98181818181831</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>236.93926499032901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>385.10909090909092</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>356.06653771760159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>370.21818181818179</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>341.38015364916782</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>355.32727272727283</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>326.28471953578338</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>340.43636363636369</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>311.59833546734961</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>325.54545454545462</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>296.70742637644048</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310.65454545454548</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>281.61199226305621</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>295.76363636363652</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>266.72108317214708</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>280.87272727272739</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>251.830174081238</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>265.98181818181831</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>237.1437900128042</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>385.10909090909092</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>356.06653771760159</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>370.21818181818179</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>341.38015364916782</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>355.32727272727283</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>326.28471953578338</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>340.43636363636369</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>311.59833546734961</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>325.54545454545462</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>296.70742637644048</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>310.65454545454548</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>281.61199226305621</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>295.76363636363652</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>266.72108317214708</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>280.87272727272739</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>251.830174081238</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>265.98181818181831</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>236.93926499032901</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>251.09090909090921</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>222.0483558994199</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>236.20000000000019</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>207.1574468085108</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>221.30909090909111</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>192.26653771760169</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>206.41818181818201</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>177.5801536491679</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>191.5272727272729</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>162.4847195357836</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>176.63636363636391</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>147.59381044487449</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>161.74545454545481</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>132.70290135396539</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>385.10909090909092</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>356.06653771760159</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>370.21818181818179</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>341.38015364916782</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>355.32727272727283</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>326.48924455825869</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>340.43636363636369</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>311.59833546734961</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>325.54545454545462</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>296.50290135396529</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>310.65454545454548</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>281.61199226305621</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>295.76363636363652</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>266.72108317214708</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>280.87272727272739</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>251.830174081238</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>265.98181818181831</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>236.93926499032901</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>251.09090909090921</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>222.0483558994199</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>236.20000000000019</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>207.1574468085108</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>221.30909090909111</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>192.26653771760169</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>385.10909090909092</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>356.06653771760159</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>370.21818181818179</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>341.38015364916782</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>355.32727272727283</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>326.48924455825869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>340.43636363636369</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>311.39381044487442</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>325.54545454545462</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>296.70742637644048</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>310.65454545454548</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>281.61199226305621</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>295.76363636363652</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>266.72108317214708</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>385.10909090909092</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>356.06653771760159</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>370.21818181818179</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>341.38015364916782</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>355.32727272727283</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>326.48924455825869</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>340.43636363636369</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>311.39381044487442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-154A-4137-BCE6-B22B86A4D67F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>U_liu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="116"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>397.50498807635358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>390.48646126886649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>394.99421652875378</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>387.93635275798022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>392.46738289537637</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>385.35711687400561</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>389.92417491395429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>382.76666922686468</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>387.36427007135029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>380.16478062533622</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>384.78733512616031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>377.53870791415812</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>382.19302560234411</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>374.88794286796423</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>379.58098525170618</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>372.22464353311699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>376.95084548285342</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>369.54215023314731</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>397.50498807635358</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>390.48646126886649</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>394.99421652875378</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>387.93635275798022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>392.46738289537637</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>385.35711687400561</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>389.92417491395429</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>382.77283717934853</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>387.36427007135029</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>380.16478062533622</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>384.78733512616031</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>377.53245444887523</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>382.19302560234411</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>374.88794286796423</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>379.58098525170618</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>372.22464353311699</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>376.95084548285342</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>369.5485389096242</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>397.50498807635358</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390.48646126886649</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>394.99421652875378</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>387.93635275798022</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>392.46738289537637</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>385.35711687400561</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>389.92417491395429</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>382.77283717934853</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>387.36427007135029</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>380.16478062533622</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>384.78733512616031</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>377.53245444887523</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>382.19302560234411</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>374.88794286796423</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>379.58098525170618</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>372.22464353311699</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>376.95084548285342</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>369.54215023314731</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>374.30222475403491</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>366.84004190453368</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>371.63472792703601</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>364.11788185984773</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>368.94794557902623</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>361.37521696386989</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>366.24145326896848</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>358.61816015445459</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>363.51481075486868</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>355.82647249305109</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>360.76756115777653</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>353.01939617028142</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>357.99923006804357</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>350.18981940943411</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>397.50498807635358</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>390.48646126886649</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>394.99421652875378</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>387.93635275798022</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>392.46738289537637</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>385.36324336493999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>389.92417491395429</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>382.77283717934853</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>387.36427007135029</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>380.15857035796262</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>384.78733512616031</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>377.53245444887523</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>382.19302560234411</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>374.88794286796423</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>379.58098525170618</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>372.22464353311699</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>376.95084548285342</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>369.54215023314731</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>374.30222475403491</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>366.84004190453368</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>371.63472792703601</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>364.11788185984773</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>368.94794557902623</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>361.37521696386989</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>397.50498807635358</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>390.48646126886649</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>394.99421652875378</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>387.93635275798022</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>392.46738289537637</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>385.36324336493999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>389.92417491395429</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>382.76666922686468</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>387.36427007135029</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>380.16478062533622</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>384.78733512616031</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>377.53245444887523</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>382.19302560234411</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>374.88794286796423</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>397.50498807635358</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>390.48646126886649</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>394.99421652875378</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>387.93635275798022</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>392.46738289537637</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>385.36324336493999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>389.92417491395429</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>382.76666922686468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-154A-4137-BCE6-B22B86A4D67F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="445611600"/>
+        <c:axId val="445616520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="445611600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445616520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445616520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="360"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445611600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>294217</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>311620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>117593</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13B07789-B89A-4445-923F-0A3BD7FA53B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -115,7 +2148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -147,9 +2180,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,6 +2232,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -356,19 +2425,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -379,7 +2450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>400</v>
       </c>
@@ -390,7 +2461,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>400</v>
       </c>
@@ -401,1261 +2472,1262 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>397.5048059149005</v>
+        <v>393.68152665894752</v>
       </c>
       <c r="B5">
-        <v>397.5048059149005</v>
+        <v>385.10909090909092</v>
       </c>
       <c r="C5">
-        <v>397.5049880763536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>397.50498807635358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>390.1771751197192</v>
+        <v>387.071570013415</v>
       </c>
       <c r="B6">
-        <v>390.222884772264</v>
+        <v>356.06653771760159</v>
       </c>
       <c r="C6">
-        <v>390.4864612688665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>390.48646126886649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>394.9939491423827</v>
+        <v>387.36305331789492</v>
       </c>
       <c r="B7">
-        <v>395.009611829801</v>
+        <v>370.21818181818179</v>
       </c>
       <c r="C7">
-        <v>394.9942165287538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>394.99421652875378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>387.6197388199743</v>
+        <v>377.86019307227701</v>
       </c>
       <c r="B8">
-        <v>387.7276906871645</v>
+        <v>341.38015364916782</v>
       </c>
       <c r="C8">
-        <v>387.9302669035558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>387.93635275798022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>392.4671316146539</v>
+        <v>381.04457997684239</v>
       </c>
       <c r="B9">
-        <v>392.5144177447015</v>
+        <v>355.32727272727283</v>
       </c>
       <c r="C9">
-        <v>392.4673828953764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>392.46738289537637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>385.0454439816764</v>
+        <v>374.43462333130992</v>
       </c>
       <c r="B10">
-        <v>385.2324966020649</v>
+        <v>326.28471953578338</v>
       </c>
       <c r="C10">
-        <v>385.3571168740056</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>385.35711687400561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>389.9240457008511</v>
+        <v>374.72610663578979</v>
       </c>
       <c r="B11">
-        <v>390.0192236596019</v>
+        <v>340.43636363636369</v>
       </c>
       <c r="C11">
-        <v>389.9241749139543</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>389.92417491395429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>382.4539537966209</v>
+        <v>365.22369524874222</v>
       </c>
       <c r="B12">
-        <v>382.7373025169654</v>
+        <v>311.39381044487442</v>
       </c>
       <c r="C12">
-        <v>382.7666692268647</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>382.76666922686468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>387.3643737723198</v>
+        <v>368.40763329473731</v>
       </c>
       <c r="B13">
-        <v>387.5240295745024</v>
+        <v>325.54545454545462</v>
       </c>
       <c r="C13">
-        <v>387.3642700713503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>387.36427007135029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>379.8442097162365</v>
+        <v>361.79736441943822</v>
       </c>
       <c r="B14">
-        <v>380.2414204738778</v>
+        <v>296.70742637644048</v>
       </c>
       <c r="C14">
-        <v>380.1647806253362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>380.16478062533622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>384.7877877421692</v>
+        <v>362.08915995368483</v>
       </c>
       <c r="B15">
-        <v>385.0288354894029</v>
+        <v>310.65454545454548</v>
       </c>
       <c r="C15">
-        <v>384.7873351261603</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>384.78733512616031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>377.2179829046873</v>
+        <v>352.58629970806692</v>
       </c>
       <c r="B16">
-        <v>377.7469143467664</v>
+        <v>281.81651728553152</v>
       </c>
       <c r="C16">
-        <v>377.5324544488752</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>377.53870791415812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>382.19394857722</v>
+        <v>355.77068661263218</v>
       </c>
       <c r="B17">
-        <v>382.5336414043034</v>
+        <v>295.76363636363652</v>
       </c>
       <c r="C17">
-        <v>382.1930256023441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>382.19302560234411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>374.5720496667477</v>
+        <v>349.16072996709983</v>
       </c>
       <c r="B18">
-        <v>375.2510323036788</v>
+        <v>266.72108317214708</v>
       </c>
       <c r="C18">
-        <v>374.8942404453208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>374.88794286796423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>379.5825057802963</v>
+        <v>349.45221327157969</v>
       </c>
       <c r="B19">
-        <v>380.0384473192039</v>
+        <v>280.87272727272739</v>
       </c>
       <c r="C19">
-        <v>379.5809852517062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>379.58098525170618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>371.908169908938</v>
+        <v>339.94980188453212</v>
       </c>
       <c r="B20">
-        <v>372.7558382185793</v>
+        <v>251.830174081238</v>
       </c>
       <c r="C20">
-        <v>372.2309861694161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>372.22464353311699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>376.9530968406297</v>
+        <v>343.13373993052721</v>
       </c>
       <c r="B21">
-        <v>377.5432532341044</v>
+        <v>265.98181818181831</v>
       </c>
       <c r="C21">
-        <v>376.9508454828534</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>376.95084548285342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>369.2252291969758</v>
+        <v>336.52378328499469</v>
       </c>
       <c r="B22">
-        <v>370.2606441334798</v>
+        <v>236.93926499032901</v>
       </c>
       <c r="C22">
-        <v>369.5485389096242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>369.54215023314731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>397.5048059149005</v>
+        <v>393.68152665894752</v>
       </c>
       <c r="B23">
-        <v>397.5048059149005</v>
+        <v>385.10909090909092</v>
       </c>
       <c r="C23">
-        <v>397.5049880763536</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>397.50498807635358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>390.1771751197192</v>
+        <v>387.071570013415</v>
       </c>
       <c r="B24">
-        <v>390.222884772264</v>
+        <v>356.06653771760159</v>
       </c>
       <c r="C24">
-        <v>390.4864612688665</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>390.48646126886649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>394.9939491423827</v>
+        <v>387.36305331789492</v>
       </c>
       <c r="B25">
-        <v>395.009611829801</v>
+        <v>370.21818181818179</v>
       </c>
       <c r="C25">
-        <v>394.9942165287538</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>394.99421652875378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>387.6190421429852</v>
+        <v>377.86019307227701</v>
       </c>
       <c r="B26">
-        <v>387.7270027291764</v>
+        <v>341.38015364916782</v>
       </c>
       <c r="C26">
-        <v>387.9363527579802</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>387.93635275798022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>392.4671316146539</v>
+        <v>381.04457997684239</v>
       </c>
       <c r="B27">
-        <v>392.5144177447015</v>
+        <v>355.32727272727283</v>
       </c>
       <c r="C27">
-        <v>392.4673828953764</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>392.46738289537637</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>385.0447428192782</v>
+        <v>374.43462333130992</v>
       </c>
       <c r="B28">
-        <v>385.2318086440769</v>
+        <v>326.28471953578338</v>
       </c>
       <c r="C28">
-        <v>385.36324336494</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>385.35711687400561</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>389.9240457008511</v>
+        <v>374.72610663578979</v>
       </c>
       <c r="B29">
-        <v>390.0192236596019</v>
+        <v>340.43636363636369</v>
       </c>
       <c r="C29">
-        <v>389.9241749139543</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>389.92417491395429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>382.4539537966209</v>
+        <v>365.22324639017188</v>
       </c>
       <c r="B30">
-        <v>382.7373025169654</v>
+        <v>311.59833546734961</v>
       </c>
       <c r="C30">
-        <v>382.7666692268647</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>382.77283717934853</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>387.3643737723198</v>
+        <v>368.40763329473731</v>
       </c>
       <c r="B31">
-        <v>387.5240295745024</v>
+        <v>325.54545454545462</v>
       </c>
       <c r="C31">
-        <v>387.3642700713503</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>387.36427007135029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>379.8449201150596</v>
+        <v>361.79736441943822</v>
       </c>
       <c r="B32">
-        <v>380.2421084318659</v>
+        <v>296.70742637644048</v>
       </c>
       <c r="C32">
-        <v>380.1585703579626</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>380.16478062533622</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>384.7877877421692</v>
+        <v>362.08915995368483</v>
       </c>
       <c r="B33">
-        <v>385.0288354894029</v>
+        <v>310.65454545454548</v>
       </c>
       <c r="C33">
-        <v>384.7873351261603</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>384.78733512616031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>377.217267748947</v>
+        <v>352.58674856663708</v>
       </c>
       <c r="B34">
-        <v>377.7462263887783</v>
+        <v>281.61199226305621</v>
       </c>
       <c r="C34">
-        <v>377.5387079141581</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>377.53245444887523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>382.19394857722</v>
+        <v>355.77068661263218</v>
       </c>
       <c r="B35">
-        <v>382.5336414043034</v>
+        <v>295.76363636363652</v>
       </c>
       <c r="C35">
-        <v>382.1930256023441</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>382.19302560234411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>374.572769676042</v>
+        <v>349.16072996709983</v>
       </c>
       <c r="B36">
-        <v>375.2517202616669</v>
+        <v>266.72108317214708</v>
       </c>
       <c r="C36">
-        <v>374.8879428679642</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>374.88794286796423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>379.5825057802963</v>
+        <v>349.45221327157969</v>
       </c>
       <c r="B37">
-        <v>380.0384473192039</v>
+        <v>280.87272727272739</v>
       </c>
       <c r="C37">
-        <v>379.5809852517062</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>379.58098525170618</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>371.908169908938</v>
+        <v>339.94980188453212</v>
       </c>
       <c r="B38">
-        <v>372.7558382185793</v>
+        <v>251.830174081238</v>
       </c>
       <c r="C38">
-        <v>372.2309861694161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>372.22464353311699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>376.9530968406297</v>
+        <v>343.13373993052721</v>
       </c>
       <c r="B39">
-        <v>377.5432532341044</v>
+        <v>265.98181818181831</v>
       </c>
       <c r="C39">
-        <v>376.9508454828534</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>376.95084548285342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>369.2252291969758</v>
+        <v>336.52347105522807</v>
       </c>
       <c r="B40">
-        <v>370.2606441334798</v>
+        <v>237.1437900128042</v>
       </c>
       <c r="C40">
         <v>369.5485389096242</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>397.5048059149005</v>
+        <v>394.62001381162048</v>
       </c>
       <c r="B41">
-        <v>397.5048059149005</v>
+        <v>385.10909090909092</v>
       </c>
       <c r="C41">
-        <v>397.5049880763536</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>397.50498807635358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>390.1771751197192</v>
+        <v>388.01005716608802</v>
       </c>
       <c r="B42">
-        <v>390.222884772264</v>
+        <v>356.06653771760159</v>
       </c>
       <c r="C42">
-        <v>390.4864612688665</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>390.48646126886649</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>394.9939491423827</v>
+        <v>389.24002762324102</v>
       </c>
       <c r="B43">
-        <v>395.009611829801</v>
+        <v>370.21818181818179</v>
       </c>
       <c r="C43">
-        <v>394.9942165287538</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>394.99421652875378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>387.6190421429852</v>
+        <v>379.73716737762311</v>
       </c>
       <c r="B44">
-        <v>387.7270027291764</v>
+        <v>341.38015364916782</v>
       </c>
       <c r="C44">
-        <v>387.9363527579802</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>387.93635275798022</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>392.4671316146539</v>
+        <v>383.86004143486139</v>
       </c>
       <c r="B45">
-        <v>392.5144177447015</v>
+        <v>355.32727272727283</v>
       </c>
       <c r="C45">
-        <v>392.4673828953764</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>392.46738289537637</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>385.0447428192782</v>
+        <v>377.25008478932898</v>
       </c>
       <c r="B46">
-        <v>385.2318086440769</v>
+        <v>326.28471953578338</v>
       </c>
       <c r="C46">
-        <v>385.36324336494</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>385.35711687400561</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>389.9240457008511</v>
+        <v>378.48005524648192</v>
       </c>
       <c r="B47">
-        <v>390.0192236596019</v>
+        <v>340.43636363636369</v>
       </c>
       <c r="C47">
-        <v>389.9241749139543</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>389.92417491395429</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>382.4539537966209</v>
+        <v>368.97719500086401</v>
       </c>
       <c r="B48">
-        <v>382.7373025169654</v>
+        <v>311.59833546734961</v>
       </c>
       <c r="C48">
-        <v>382.7666692268647</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>382.77283717934853</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>387.3643737723198</v>
+        <v>373.10006905810241</v>
       </c>
       <c r="B49">
-        <v>387.5240295745024</v>
+        <v>325.54545454545462</v>
       </c>
       <c r="C49">
-        <v>387.3642700713503</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>387.36427007135029</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>379.8442097162365</v>
+        <v>366.48980018280332</v>
       </c>
       <c r="B50">
-        <v>380.2414204738778</v>
+        <v>296.70742637644048</v>
       </c>
       <c r="C50">
-        <v>380.1647806253362</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>380.16478062533622</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>384.7877877421692</v>
+        <v>367.72008286972289</v>
       </c>
       <c r="B51">
-        <v>385.0288354894029</v>
+        <v>310.65454545454548</v>
       </c>
       <c r="C51">
-        <v>384.7873351261603</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>384.78733512616031</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>377.2179829046873</v>
+        <v>358.21767148267531</v>
       </c>
       <c r="B52">
-        <v>377.7469143467664</v>
+        <v>281.61199226305621</v>
       </c>
       <c r="C52">
-        <v>377.5324544488752</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>377.53245444887523</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>382.19394857722</v>
+        <v>362.34009668134343</v>
       </c>
       <c r="B53">
-        <v>382.5336414043034</v>
+        <v>295.76363636363652</v>
       </c>
       <c r="C53">
-        <v>382.1930256023441</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>382.19302560234411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>374.572769676042</v>
+        <v>355.7301400358109</v>
       </c>
       <c r="B54">
-        <v>375.2517202616669</v>
+        <v>266.72108317214708</v>
       </c>
       <c r="C54">
-        <v>374.8879428679642</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>374.88794286796423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>379.5825057802963</v>
+        <v>356.96011049296379</v>
       </c>
       <c r="B55">
-        <v>380.0384473192039</v>
+        <v>280.87272727272739</v>
       </c>
       <c r="C55">
-        <v>379.5809852517062</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>379.58098525170618</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>371.9088948717354</v>
+        <v>347.45769910591622</v>
       </c>
       <c r="B56">
-        <v>372.7565261765674</v>
+        <v>251.830174081238</v>
       </c>
       <c r="C56">
-        <v>372.224643533117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>372.22464353311699</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>376.9530968406297</v>
+        <v>351.58012430458427</v>
       </c>
       <c r="B57">
-        <v>377.5432532341044</v>
+        <v>265.98181818181831</v>
       </c>
       <c r="C57">
-        <v>376.9508454828534</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>376.95084548285342</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>369.2259592166985</v>
+        <v>344.97016765905192</v>
       </c>
       <c r="B58">
-        <v>370.2613320914679</v>
+        <v>236.93926499032901</v>
       </c>
       <c r="C58">
-        <v>369.5421502331473</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>369.54215023314731</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>374.3053466499427</v>
+        <v>346.20013811620481</v>
       </c>
       <c r="B59">
-        <v>375.0480591490049</v>
+        <v>251.09090909090921</v>
       </c>
       <c r="C59">
-        <v>374.3022247540349</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>374.30222475403491</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>366.5228138426458</v>
+        <v>336.69772672915718</v>
       </c>
       <c r="B60">
-        <v>367.7654500483803</v>
+        <v>222.0483558994199</v>
       </c>
       <c r="C60">
-        <v>366.8464776385621</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>366.84004190453368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>371.6388668815594</v>
+        <v>340.82015192782529</v>
       </c>
       <c r="B61">
-        <v>372.5528650639054</v>
+        <v>236.20000000000019</v>
       </c>
       <c r="C61">
-        <v>371.634727927036</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>371.63472792703601</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>363.8004950107878</v>
+        <v>334.21019528229277</v>
       </c>
       <c r="B62">
-        <v>365.2702559632808</v>
+        <v>207.1574468085108</v>
       </c>
       <c r="C62">
-        <v>364.124365706831</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>364.11788185984773</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>368.9532553296388</v>
+        <v>335.44016573944577</v>
       </c>
       <c r="B63">
-        <v>370.0576709788058</v>
+        <v>221.30909090909111</v>
       </c>
       <c r="C63">
-        <v>368.9479455790262</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>368.94794557902623</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>361.0585737812887</v>
+        <v>325.93775435239809</v>
       </c>
       <c r="B64">
-        <v>362.7757498361693</v>
+        <v>192.26653771760169</v>
       </c>
       <c r="C64">
-        <v>361.3752169638699</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>361.37521696386989</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>366.2480952053621</v>
+        <v>330.06017955106631</v>
       </c>
       <c r="B65">
-        <v>367.5624768937063</v>
+        <v>206.41818181818201</v>
       </c>
       <c r="C65">
-        <v>366.2414532689685</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>366.24145326896848</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>358.2943510674808</v>
+        <v>323.44991067576723</v>
       </c>
       <c r="B66">
-        <v>360.2798677930817</v>
+        <v>177.5801536491679</v>
       </c>
       <c r="C66">
-        <v>358.6181601544546</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>358.61816015445459</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>363.5229543865951</v>
+        <v>324.68019336268668</v>
       </c>
       <c r="B67">
-        <v>365.0672828086068</v>
+        <v>191.5272727272729</v>
       </c>
       <c r="C67">
-        <v>363.5148107548687</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>363.51481075486868</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>355.5103421927666</v>
+        <v>315.17778197563911</v>
       </c>
       <c r="B68">
-        <v>357.7853616659703</v>
+        <v>162.4847195357836</v>
       </c>
       <c r="C68">
-        <v>355.8264724930511</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>355.82647249305109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>360.7773846172144</v>
+        <v>319.30020717430722</v>
       </c>
       <c r="B69">
-        <v>362.5720887235073</v>
+        <v>176.63636363636391</v>
       </c>
       <c r="C69">
-        <v>360.7675611577765</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>360.76756115777653</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>352.7037952481217</v>
+        <v>312.69025052877481</v>
       </c>
       <c r="B70">
-        <v>355.2901675808708</v>
+        <v>147.59381044487449</v>
       </c>
       <c r="C70">
-        <v>353.0193961702814</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>353.01939617028142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>358.0109206519114</v>
+        <v>313.9202209859277</v>
       </c>
       <c r="B71">
-        <v>360.0768946384078</v>
+        <v>161.74545454545481</v>
       </c>
       <c r="C71">
-        <v>357.9992300680436</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>357.99923006804357</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>349.874944096362</v>
+        <v>304.41780959888013</v>
       </c>
       <c r="B72">
-        <v>352.7949734957713</v>
+        <v>132.70290135396539</v>
       </c>
       <c r="C72">
-        <v>350.1898194094341</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>350.18981940943411</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>397.5048059149005</v>
+        <v>394.34858563815447</v>
       </c>
       <c r="B73">
-        <v>397.5048059149005</v>
+        <v>385.10909090909092</v>
       </c>
       <c r="C73">
-        <v>397.5049880763536</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>397.50498807635358</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>390.1771751197192</v>
+        <v>387.73862899262213</v>
       </c>
       <c r="B74">
-        <v>390.222884772264</v>
+        <v>356.06653771760159</v>
       </c>
       <c r="C74">
-        <v>390.4864612688665</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>390.48646126886649</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>394.9939491423827</v>
+        <v>388.69717127630912</v>
       </c>
       <c r="B75">
-        <v>395.009611829801</v>
+        <v>370.21818181818179</v>
       </c>
       <c r="C75">
-        <v>394.9942165287538</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>394.99421652875378</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>387.6190421429852</v>
+        <v>379.19431103069121</v>
       </c>
       <c r="B76">
-        <v>387.7270027291764</v>
+        <v>341.38015364916782</v>
       </c>
       <c r="C76">
-        <v>387.9363527579802</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>387.93635275798022</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>392.4671316146539</v>
+        <v>383.0457569144636</v>
       </c>
       <c r="B77">
-        <v>392.5144177447015</v>
+        <v>355.32727272727283</v>
       </c>
       <c r="C77">
-        <v>392.4673828953764</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>392.46738289537637</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>385.0447428192782</v>
+        <v>376.43548803916451</v>
       </c>
       <c r="B78">
-        <v>385.2318086440769</v>
+        <v>326.48924455825869</v>
       </c>
       <c r="C78">
-        <v>385.36324336494</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>385.36324336493999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>389.9240457008511</v>
+        <v>377.39434255261813</v>
       </c>
       <c r="B79">
-        <v>390.0192236596019</v>
+        <v>340.43636363636369</v>
       </c>
       <c r="C79">
-        <v>389.9241749139543</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>389.92417491395429</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>382.4532480612392</v>
+        <v>367.89148230700022</v>
       </c>
       <c r="B80">
-        <v>382.7366145589774</v>
+        <v>311.59833546734961</v>
       </c>
       <c r="C80">
-        <v>382.7728371793485</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>382.77283717934853</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>387.3643737723198</v>
+        <v>371.74292819077272</v>
       </c>
       <c r="B81">
-        <v>387.5240295745024</v>
+        <v>325.54545454545462</v>
       </c>
       <c r="C81">
-        <v>387.3642700713503</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>387.36427007135029</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>379.8442097162365</v>
+        <v>365.1329715452402</v>
       </c>
       <c r="B82">
-        <v>380.2414204738778</v>
+        <v>296.50290135396529</v>
       </c>
       <c r="C82">
-        <v>380.1647806253362</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>380.15857035796262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>384.7877877421692</v>
+        <v>366.09151382892719</v>
       </c>
       <c r="B83">
-        <v>385.0288354894029</v>
+        <v>310.65454545454548</v>
       </c>
       <c r="C83">
-        <v>384.7873351261603</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>384.78733512616031</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>377.217267748947</v>
+        <v>356.58910244187962</v>
       </c>
       <c r="B84">
-        <v>377.7462263887783</v>
+        <v>281.61199226305621</v>
       </c>
       <c r="C84">
-        <v>377.5387079141581</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>377.53245444887523</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>382.19394857722</v>
+        <v>360.44009946708172</v>
       </c>
       <c r="B85">
-        <v>382.5336414043034</v>
+        <v>295.76363636363652</v>
       </c>
       <c r="C85">
-        <v>382.1930256023441</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>382.19302560234411</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>374.5720496667477</v>
+        <v>353.83014282154932</v>
       </c>
       <c r="B86">
-        <v>375.2510323036788</v>
+        <v>266.72108317214708</v>
       </c>
       <c r="C86">
-        <v>374.8942404453208</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>374.88794286796423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>379.5825057802963</v>
+        <v>354.78868510523631</v>
       </c>
       <c r="B87">
-        <v>380.0384473192039</v>
+        <v>280.87272727272739</v>
       </c>
       <c r="C87">
-        <v>379.5809852517062</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>379.58098525170618</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>371.908169908938</v>
+        <v>345.28627371818862</v>
       </c>
       <c r="B88">
-        <v>372.7558382185793</v>
+        <v>251.830174081238</v>
       </c>
       <c r="C88">
-        <v>372.2309861694161</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>372.22464353311699</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>376.9530968406297</v>
+        <v>349.13727074339079</v>
       </c>
       <c r="B89">
-        <v>377.5432532341044</v>
+        <v>265.98181818181831</v>
       </c>
       <c r="C89">
-        <v>376.9508454828534</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>376.95084548285342</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>369.2259592166985</v>
+        <v>342.52731409785832</v>
       </c>
       <c r="B90">
-        <v>370.2613320914679</v>
+        <v>236.93926499032901</v>
       </c>
       <c r="C90">
-        <v>369.5421502331473</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>369.54215023314731</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>374.3053466499427</v>
+        <v>343.48585638154532</v>
       </c>
       <c r="B91">
-        <v>375.0480591490049</v>
+        <v>251.09090909090921</v>
       </c>
       <c r="C91">
-        <v>374.3022247540349</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>374.30222475403491</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>366.5235490263606</v>
+        <v>333.98344499449769</v>
       </c>
       <c r="B92">
-        <v>367.7661380063684</v>
+        <v>222.0483558994199</v>
       </c>
       <c r="C92">
-        <v>366.8400419045337</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>366.84004190453368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>371.6388668815594</v>
+        <v>337.83444201969979</v>
       </c>
       <c r="B93">
-        <v>372.5528650639054</v>
+        <v>236.20000000000019</v>
       </c>
       <c r="C93">
-        <v>371.634727927036</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>371.63472792703601</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>363.8004950107878</v>
+        <v>331.22448537416739</v>
       </c>
       <c r="B94">
-        <v>365.2702559632808</v>
+        <v>207.1574468085108</v>
       </c>
       <c r="C94">
-        <v>364.124365706831</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>364.11788185984773</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>368.9532553296388</v>
+        <v>332.18302765785438</v>
       </c>
       <c r="B95">
-        <v>370.0576709788058</v>
+        <v>221.30909090909111</v>
       </c>
       <c r="C95">
-        <v>368.9479455790262</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>368.94794557902623</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>361.0578279328885</v>
+        <v>322.68061627080681</v>
       </c>
       <c r="B96">
-        <v>362.7750618781812</v>
+        <v>192.26653771760169</v>
       </c>
       <c r="C96">
-        <v>361.3817500192615</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>361.37521696386989</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>397.5048059149005</v>
+        <v>393.44886740603488</v>
       </c>
       <c r="B97">
-        <v>397.5048059149005</v>
+        <v>385.10909090909092</v>
       </c>
       <c r="C97">
-        <v>397.5049880763536</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>397.50498807635358</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>390.1771751197192</v>
+        <v>386.83891076050247</v>
       </c>
       <c r="B98">
-        <v>390.222884772264</v>
+        <v>356.06653771760159</v>
       </c>
       <c r="C98">
-        <v>390.4864612688665</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>390.48646126886649</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>394.9939491423827</v>
+        <v>386.89773481206993</v>
       </c>
       <c r="B99">
-        <v>395.009611829801</v>
+        <v>370.21818181818179</v>
       </c>
       <c r="C99">
-        <v>394.9942165287538</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>394.99421652875378</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>387.6197388199743</v>
+        <v>377.39487456645202</v>
       </c>
       <c r="B100">
-        <v>387.7276906871645</v>
+        <v>341.38015364916782</v>
       </c>
       <c r="C100">
-        <v>387.9302669035558</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>387.93635275798022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>392.4671316146539</v>
+        <v>380.34660221810481</v>
       </c>
       <c r="B101">
-        <v>392.5144177447015</v>
+        <v>355.32727272727283</v>
       </c>
       <c r="C101">
-        <v>392.4673828953764</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>392.46738289537637</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>385.0447428192782</v>
+        <v>373.73633334280572</v>
       </c>
       <c r="B102">
-        <v>385.2318086440769</v>
+        <v>326.48924455825869</v>
       </c>
       <c r="C102">
-        <v>385.36324336494</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>385.36324336493999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>389.9240457008511</v>
+        <v>373.79546962413968</v>
       </c>
       <c r="B103">
-        <v>390.0192236596019</v>
+        <v>340.43636363636369</v>
       </c>
       <c r="C103">
-        <v>389.9241749139543</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>389.92417491395429</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>382.4532480612392</v>
+        <v>364.29305823709211</v>
       </c>
       <c r="B104">
-        <v>382.7366145589774</v>
+        <v>311.39381044487442</v>
       </c>
       <c r="C104">
-        <v>382.7728371793485</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>382.76666922686468</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>387.3643737723198</v>
+        <v>367.24433703017468</v>
       </c>
       <c r="B105">
-        <v>387.5240295745024</v>
+        <v>325.54545454545462</v>
       </c>
       <c r="C105">
-        <v>387.3642700713503</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>387.36427007135029</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>379.8449201150596</v>
+        <v>360.63406815487559</v>
       </c>
       <c r="B106">
-        <v>380.2421084318659</v>
+        <v>296.70742637644048</v>
       </c>
       <c r="C106">
-        <v>380.1585703579626</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>380.16478062533622</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>384.7877877421692</v>
+        <v>360.69320443620961</v>
       </c>
       <c r="B107">
-        <v>385.0288354894029</v>
+        <v>310.65454545454548</v>
       </c>
       <c r="C107">
-        <v>384.7873351261603</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>384.78733512616031</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>377.2179829046873</v>
+        <v>351.19079304916198</v>
       </c>
       <c r="B108">
-        <v>377.7469143467664</v>
+        <v>281.61199226305621</v>
       </c>
       <c r="C108">
-        <v>377.5324544488752</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>377.53245444887523</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>382.19394857722</v>
+        <v>354.14207184224449</v>
       </c>
       <c r="B109">
-        <v>382.5336414043034</v>
+        <v>295.76363636363652</v>
       </c>
       <c r="C109">
-        <v>382.1930256023441</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>382.19302560234411</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>374.5720496667477</v>
+        <v>347.53211519671208</v>
       </c>
       <c r="B110">
-        <v>375.2510323036788</v>
+        <v>266.72108317214708</v>
       </c>
       <c r="C110">
-        <v>374.8942404453208</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>374.88794286796423</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>397.5048059149005</v>
+        <v>392.00769316288802</v>
       </c>
       <c r="B111">
-        <v>397.5048059149005</v>
+        <v>385.10909090909092</v>
       </c>
       <c r="C111">
-        <v>397.5049880763536</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>397.50498807635358</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>390.1771751197192</v>
+        <v>385.39773651735561</v>
       </c>
       <c r="B112">
-        <v>390.222884772264</v>
+        <v>356.06653771760159</v>
       </c>
       <c r="C112">
-        <v>390.4864612688665</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>390.48646126886649</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>394.9939491423827</v>
+        <v>384.01538632577598</v>
       </c>
       <c r="B113">
-        <v>395.009611829801</v>
+        <v>370.21818181818179</v>
       </c>
       <c r="C113">
-        <v>394.9942165287538</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>394.99421652875378</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>387.6190421429852</v>
+        <v>374.51252608015812</v>
       </c>
       <c r="B114">
-        <v>387.7270027291764</v>
+        <v>341.38015364916782</v>
       </c>
       <c r="C114">
-        <v>387.9363527579802</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>387.93635275798022</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>392.4671316146539</v>
+        <v>376.02307948866411</v>
       </c>
       <c r="B115">
-        <v>392.5144177447015</v>
+        <v>355.32727272727283</v>
       </c>
       <c r="C115">
-        <v>392.4673828953764</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>392.46738289537637</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>385.0454439816764</v>
+        <v>369.41281061336502</v>
       </c>
       <c r="B116">
-        <v>385.2324966020649</v>
+        <v>326.48924455825869</v>
       </c>
       <c r="C116">
-        <v>385.3571168740056</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>385.36324336493999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>389.9240457008511</v>
+        <v>368.03077265155213</v>
       </c>
       <c r="B117">
-        <v>390.0192236596019</v>
+        <v>340.43636363636369</v>
       </c>
       <c r="C117">
-        <v>389.9241749139543</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>389.92417491395429</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>382.4539537966209</v>
+        <v>358.52836126450438</v>
       </c>
       <c r="B118">
-        <v>382.7373025169654</v>
+        <v>311.39381044487442</v>
       </c>
       <c r="C118">
-        <v>382.7666692268647</v>
+        <v>382.76666922686468</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>